--- a/01_Project Information/Resources Used.xlsx
+++ b/01_Project Information/Resources Used.xlsx
@@ -1,28 +1,74 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\Apps\_Templates\Template Combined\01_Project Information\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="29" documentId="11_F25DC773A252ABDACC104874B11871E25ADE58F4" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{23CDFB9D-4A3A-4717-98E6-012E2E008AEC}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Stock Change" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>Part No.</t>
+  </si>
+  <si>
+    <t>Remaining Stock</t>
+  </si>
+  <si>
+    <t>Initial Stock</t>
+  </si>
+  <si>
+    <t>Used</t>
+  </si>
+  <si>
+    <t>Database Updated?</t>
+  </si>
+  <si>
+    <t>Date Used</t>
+  </si>
+  <si>
+    <t>Part Description</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -49,8 +95,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +379,53 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <f>C2-D2</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>